--- a/Data/052018/chamcong.xlsx
+++ b/Data/052018/chamcong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DBCD983-F0E6-428B-8264-E76FB1C62619}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4F072C5-29A8-4CC4-BB10-62665F99C606}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>hai</t>
+    <t>Hai</t>
   </si>
   <si>
-    <t>tien</t>
+    <t>Tien</t>
   </si>
   <si>
-    <t>minh</t>
+    <t>Minh</t>
   </si>
   <si>
-    <t>cuong</t>
+    <t>Cuong</t>
   </si>
   <si>
-    <t>duc</t>
+    <t>Duc</t>
   </si>
 </sst>
 </file>
@@ -408,10 +408,10 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data/052018/chamcong.xlsx
+++ b/Data/052018/chamcong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DucTn\Desktop\Luong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4F072C5-29A8-4CC4-BB10-62665F99C606}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F0C9ABF-34BA-4457-9AFA-D480D2CE856B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Hai</t>
   </si>
@@ -36,6 +36,24 @@
   <si>
     <t>Duc</t>
   </si>
+  <si>
+    <t>Chi Thuy</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Huong</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Cuc</t>
+  </si>
 </sst>
 </file>
 
@@ -44,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -54,10 +72,18 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -88,6 +114,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +436,10 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -422,11 +450,12 @@
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -446,12 +475,24 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -507,6 +548,9 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -528,6 +572,9 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -549,6 +596,9 @@
       <c r="F5" s="5">
         <v>1</v>
       </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -570,6 +620,9 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -612,6 +665,9 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -633,6 +689,9 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -654,6 +713,9 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -675,7 +737,13 @@
       <c r="F11" s="5">
         <v>1</v>
       </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
       <c r="H11" s="5"/>
+      <c r="J11" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -696,7 +764,16 @@
       <c r="F12" s="5">
         <v>1</v>
       </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
       <c r="H12" s="5"/>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -717,7 +794,16 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
       <c r="H13" s="5"/>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -739,6 +825,12 @@
         <v>1</v>
       </c>
       <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -759,7 +851,22 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
       <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -780,7 +887,22 @@
       <c r="F16" s="5">
         <v>0.5</v>
       </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
       <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -801,7 +923,19 @@
       <c r="F17" s="5">
         <v>0</v>
       </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
       <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -822,7 +956,22 @@
       <c r="F18" s="5">
         <v>0</v>
       </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
       <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -838,12 +987,27 @@
         <v>1</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
       <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -864,7 +1028,22 @@
       <c r="F20" s="5">
         <v>1</v>
       </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
       <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
@@ -885,7 +1064,22 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
+      <c r="G21" s="5">
+        <v>0.5</v>
+      </c>
       <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -906,7 +1100,22 @@
       <c r="F22" s="5">
         <v>1</v>
       </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
       <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -927,7 +1136,22 @@
       <c r="F23" s="5">
         <v>1</v>
       </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
       <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -948,7 +1172,16 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
       <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -969,7 +1202,18 @@
       <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
@@ -990,7 +1234,15 @@
       <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -1011,7 +1263,18 @@
       <c r="F27" s="5">
         <v>0</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
@@ -1032,7 +1295,15 @@
       <c r="F28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -1053,7 +1324,18 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -1074,7 +1356,18 @@
       <c r="F30" s="5">
         <v>1</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -1095,9 +1388,20 @@
       <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43251</v>
       </c>
@@ -1116,26 +1420,34 @@
       <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="G32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>

--- a/Data/052018/chamcong.xlsx
+++ b/Data/052018/chamcong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DucTn\Desktop\Luong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F0C9ABF-34BA-4457-9AFA-D480D2CE856B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6089EB2-CC18-4574-AE65-3365550478A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,10 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -527,6 +527,9 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -644,6 +647,9 @@
       <c r="F7" s="5">
         <v>0</v>
       </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -824,6 +830,9 @@
       <c r="F14" s="5">
         <v>1</v>
       </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
         <v>1</v>
@@ -1294,6 +1303,9 @@
       </c>
       <c r="F28" s="5">
         <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>

--- a/Data/052018/chamcong.xlsx
+++ b/Data/052018/chamcong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C6089EB2-CC18-4574-AE65-3365550478A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F211C932-4354-454A-9CE1-FF214ABBC240}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,10 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -513,22 +513,22 @@
         <v>43221</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>

--- a/Data/052018/chamcong.xlsx
+++ b/Data/052018/chamcong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F211C932-4354-454A-9CE1-FF214ABBC240}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0257B2D2-A0DB-4CEB-8395-B81B07EFF65D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,10 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -927,7 +927,7 @@
         <v>0.5</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="5">
         <v>0.5</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
